--- a/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
+++ b/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A187C7D-FCB2-49D3-A27B-0285382C3A17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641894D6-2D78-46FD-B3A1-433F3E9BF1C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9090" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>

--- a/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
+++ b/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641894D6-2D78-46FD-B3A1-433F3E9BF1C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DE080-F39A-40C0-A732-16BD2E13F41C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9090" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>

--- a/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
+++ b/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DE080-F39A-40C0-A732-16BD2E13F41C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA25523-2E88-4BEA-8F4D-E4CE276A7A00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9090" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -85,7 +85,16 @@
     <t>on user choice</t>
   </si>
   <si>
-    <t>evaluate</t>
+    <t>DD/04/2019</t>
+  </si>
+  <si>
+    <t>00/04</t>
+  </si>
+  <si>
+    <t>12/00/2019</t>
+  </si>
+  <si>
+    <t>Rework</t>
   </si>
 </sst>
 </file>
@@ -130,9 +139,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,12 +459,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85FBF3-A27A-4E0F-8596-1E217E07103B}">
-  <dimension ref="A1"/>
+  <dimension ref="C6:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.70972222222222225</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.70972222222222225</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43803</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -462,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56D6407-CB23-4835-A341-ADCE5EEC0A62}">
   <dimension ref="C9:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -524,6 +732,9 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
+      <c r="D18" s="2">
+        <v>43803</v>
+      </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -535,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>480</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -559,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>

--- a/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
+++ b/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA25523-2E88-4BEA-8F4D-E4CE276A7A00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164A2EF-DEDD-461C-8581-915508B5DDF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="9090" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
+    <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -95,6 +90,30 @@
   </si>
   <si>
     <t>Rework</t>
+  </si>
+  <si>
+    <t>13/04/2019</t>
+  </si>
+  <si>
+    <t>LOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>UNLOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manual Record</t>
+  </si>
+  <si>
+    <t>Button</t>
   </si>
 </sst>
 </file>
@@ -139,11 +158,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,206 +487,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85FBF3-A27A-4E0F-8596-1E217E07103B}">
-  <dimension ref="C6:E27"/>
+  <dimension ref="C6:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>43803</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>43803</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>43803</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>43803</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>43803</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>0.7090277777777777</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>43803</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>0.7090277777777777</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>43803</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.7090277777777777</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>43803</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>0.7090277777777777</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>0.70972222222222225</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>0.70972222222222225</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="D26" s="2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
         <v>43803</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
         <v>22</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>43803</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -670,29 +995,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56D6407-CB23-4835-A341-ADCE5EEC0A62}">
   <dimension ref="C9:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>22</v>
+      <c r="D9" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -700,7 +1025,7 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -708,7 +1033,7 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -716,7 +1041,7 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -724,7 +1049,7 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -732,8 +1057,8 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2">
-        <v>43803</v>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -745,7 +1070,7 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>420</v>
       </c>
     </row>
@@ -753,7 +1078,7 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>45</v>
       </c>
     </row>
@@ -761,7 +1086,7 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -769,7 +1094,7 @@
       <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
@@ -780,7 +1105,7 @@
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" t="s">

--- a/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
+++ b/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164A2EF-DEDD-461C-8581-915508B5DDF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E6FB4-7D51-47D0-8B15-7B026981DF63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
@@ -71,67 +71,59 @@
     <t>IntOfflineTime</t>
   </si>
   <si>
-    <t>http://buhev-jira.conti.de:7090/browse/HD-1660</t>
-  </si>
-  <si>
-    <t>multiple logs</t>
-  </si>
-  <si>
     <t>on user choice</t>
   </si>
   <si>
-    <t>DD/04/2019</t>
-  </si>
-  <si>
-    <t>00/04</t>
-  </si>
-  <si>
-    <t>12/00/2019</t>
-  </si>
-  <si>
-    <t>Rework</t>
-  </si>
-  <si>
     <t>13/04/2019</t>
   </si>
   <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>New Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Day</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Task Status</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>LOCK</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>UNLOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>----</t>
+    <t>120 min break</t>
+  </si>
+  <si>
+    <t>http://buhev-jira.conti.de:7090/issues/?filter=-1</t>
   </si>
   <si>
     <t xml:space="preserve"> Manual Record</t>
   </si>
   <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,11 +146,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,12 +160,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,98 +474,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85FBF3-A27A-4E0F-8596-1E217E07103B}">
-  <dimension ref="C6:G45"/>
+  <dimension ref="C6:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
-        <v>43803</v>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>43803</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -586,10 +694,16 @@
       <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>43803</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -597,10 +711,16 @@
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="3">
-        <v>43803</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -608,44 +728,68 @@
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>43803</v>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>43803</v>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E21" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>43803</v>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>43803</v>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
@@ -653,10 +797,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -664,327 +814,182 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>43803</v>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E26" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3">
-        <v>43803</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.59305555555555556</v>
-      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.59305555555555556</v>
-      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.60486111111111118</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.60486111111111118</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.60486111111111118</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.60486111111111118</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <v>29</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <v>31</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <v>33</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <v>34</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <v>35</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <v>36</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="1">
-        <v>37</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.62986111111111109</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
-        <v>38</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.63402777777777775</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="1">
-        <v>39</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.63402777777777775</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="1">
-        <v>40</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.63402777777777775</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -995,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56D6407-CB23-4835-A341-ADCE5EEC0A62}">
   <dimension ref="C9:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -1071,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="1">
-        <v>420</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -1086,8 +1091,8 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>14</v>
+      <c r="D24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
@@ -1109,13 +1111,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" xr:uid="{9AEDA1D1-4CC5-45AA-98BA-09D32C16AA57}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
+++ b/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E6FB4-7D51-47D0-8B15-7B026981DF63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083B197-28AE-4685-93ED-92A4DD3540B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
+    <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -114,6 +114,39 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>14/04/2019</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task Status Changed</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Rework</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -474,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85FBF3-A27A-4E0F-8596-1E217E07103B}">
-  <dimension ref="C6:G79"/>
+  <dimension ref="C5:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +518,27 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
@@ -838,67 +888,175 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
@@ -1000,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56D6407-CB23-4835-A341-ADCE5EEC0A62}">
   <dimension ref="C9:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1015,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -1100,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
+++ b/WindowsFormsApp1/Revision1.1/bin/Debug/Revision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Revision1.1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083B197-28AE-4685-93ED-92A4DD3540B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3551EE24-A998-4EA3-B057-198E499C7731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
+    <workbookView xWindow="1740" yWindow="1680" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{92FF9FE4-D94D-4883-9F76-536541F58B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
   <si>
     <t>StrCurrentTaskStatus</t>
   </si>
@@ -104,9 +104,6 @@
     <t>120 min break</t>
   </si>
   <si>
-    <t>http://buhev-jira.conti.de:7090/issues/?filter=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Manual Record</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>15/04/2019</t>
+  </si>
+  <si>
+    <t>http://buhev-jira.conti.de:7090/browse/</t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC85FBF3-A27A-4E0F-8596-1E217E07103B}">
   <dimension ref="C5:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,19 +527,19 @@
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -853,10 +856,10 @@
         <v>0.76458333333333339</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -870,7 +873,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -884,7 +887,7 @@
         <v>0.79236111111111107</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
@@ -892,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2">
         <v>0.67499999999999993</v>
@@ -915,7 +918,7 @@
         <v>0.68611111111111101</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
@@ -929,10 +932,10 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -946,10 +949,10 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -963,10 +966,10 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
@@ -980,10 +983,10 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
@@ -997,10 +1000,10 @@
         <v>0.69374999999999998</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
@@ -1014,17 +1017,45 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
@@ -1158,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56D6407-CB23-4835-A341-ADCE5EEC0A62}">
   <dimension ref="C9:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1221,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
